--- a/doc/Ментор - соответсвия вопросов.xlsx
+++ b/doc/Ментор - соответсвия вопросов.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Quest #</t>
   </si>
@@ -114,10 +114,13 @@
     <t>Нахождение неопределённых интегралов ?</t>
   </si>
   <si>
-    <t>Найти все собственные числа матрицы</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>Угол между прямой и плоскостью</t>
+  </si>
+  <si>
+    <t>Угол между скрещивающимися прямыми</t>
+  </si>
+  <si>
+    <t>Расстояние между прямыми</t>
   </si>
 </sst>
 </file>
@@ -461,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +766,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -781,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
